--- a/biology/Botanique/Sideritis/Sideritis.xlsx
+++ b/biology/Botanique/Sideritis/Sideritis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sideritis est un genre regroupant environ 150 espèces de plantes à fleurs de la famille des lamiacées ou labiées, originaires surtout du bassin méditerranéen, de Macaronésie et d'Asie tempérée.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées annuelles ou vivaces ou encore des sous-arbrisseaux velus ou laineux. Les petites fleurs jaunes, blanches, pourprées ou violacées sont regroupées en épis terminaux composés de verticillastres superposés. La corolle a deux lèvres. La lèvre supérieure est droite, entière ou légèrement échancrée. La lèvre inférieure est étalée et trilobée, le lobe central plus large que les lobes latéraux. Les quatre étamines ne dépassent pas à l'extérieur de la corolle.
 </t>
@@ -542,7 +556,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sideritis aranensis (Font Quer) D.Rivera &amp; Obón - Crapaudine du Val d'Aran
 Sideritis bubanii Font Quer
